--- a/va_facility_data_2025-02-20/Excelsior Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Excelsior%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Excelsior Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Excelsior%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf16a86b37d0470cadf16175d78ae139"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7b654dcb92ee42deab5f9331f42bd21d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcbf1998115fd4c5cb765cb69c94efe58"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R832f76fa93c4405bbc92094718962483"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0cb861d145bf4fdd8a4b8ad2d4e0b10e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdedfbb962f34459e954fcfb4538df265"/>
   </x:sheets>
 </x:workbook>
 </file>
